--- a/Project/Phase 2/Sprint1/Sprint Backlog 1.xlsx
+++ b/Project/Phase 2/Sprint1/Sprint Backlog 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\IdeaProjects\ganttproject\Project\Phase 1\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\ItelliJProjects\ganttproject\Project\Phase 2\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4510A015-FD1A-4DCA-8140-BE65210D6D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2194897D-8F5C-47D2-8E1F-262843C5E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{9392BBC0-9733-4AE7-99B2-F5E85BB9E650}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{9392BBC0-9733-4AE7-99B2-F5E85BB9E650}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>TODO</t>
   </si>
@@ -59,21 +59,6 @@
     <t>Done</t>
   </si>
   <si>
-    <t>Set up workspace</t>
-  </si>
-  <si>
-    <t>Organise project structure</t>
-  </si>
-  <si>
-    <t>Find design patterns</t>
-  </si>
-  <si>
-    <t>Find code smells</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
     <t>date added</t>
   </si>
   <si>
@@ -83,16 +68,46 @@
     <t>Done by</t>
   </si>
   <si>
-    <t>Final Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">todos </t>
-  </si>
-  <si>
-    <t>todos</t>
-  </si>
-  <si>
-    <t>Nádia Mendes</t>
+    <t>Reunião de divisao de trabalho</t>
+  </si>
+  <si>
+    <t>Nádia Mendes João Esteves</t>
+  </si>
+  <si>
+    <t>Reunião  de trabalho para a distribuicao das tarefas</t>
+  </si>
+  <si>
+    <t>Reunião sobre implementação direta do sprint 1</t>
+  </si>
+  <si>
+    <t>Nádia Mendes João Esteves Jóse Morgado</t>
+  </si>
+  <si>
+    <t>realização use case diagram</t>
+  </si>
+  <si>
+    <t>realizacao use case descriptions</t>
+  </si>
+  <si>
+    <t>realizacao user storys</t>
+  </si>
+  <si>
+    <t>Alteracao do codigo</t>
+  </si>
+  <si>
+    <t>criacao de testes unitarios</t>
+  </si>
+  <si>
+    <t>analise das metricas</t>
+  </si>
+  <si>
+    <t>criação do video</t>
+  </si>
+  <si>
+    <t>elaboração do relatorio final</t>
+  </si>
+  <si>
+    <t>NádiaMendes</t>
   </si>
 </sst>
 </file>
@@ -351,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -410,6 +425,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -437,17 +458,39 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -767,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{967FB2FE-6A89-4F9E-AE81-44244EA8E5F4}">
   <dimension ref="B2:S20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,46 +826,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="20" t="s">
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="20" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="21"/>
-      <c r="K4" s="20" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="21"/>
+      <c r="L4" s="23"/>
       <c r="N4" s="14"/>
       <c r="O4" s="14"/>
       <c r="P4" s="14"/>
@@ -831,34 +874,34 @@
       <c r="S4" s="14"/>
     </row>
     <row r="5" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
@@ -866,182 +909,297 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" s="15">
-        <v>44853</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="2"/>
+        <v>44875</v>
+      </c>
+      <c r="E6" s="31">
+        <v>44875</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G6" s="13"/>
       <c r="H6" s="2"/>
       <c r="I6" s="13"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="2"/>
+      <c r="K6" s="15">
+        <v>44875</v>
+      </c>
+      <c r="L6" s="32">
+        <v>44875</v>
+      </c>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="15">
-        <v>44853</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="4"/>
+        <v>44878</v>
+      </c>
+      <c r="E7" s="33">
+        <v>44878</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="11"/>
       <c r="H7" s="4"/>
       <c r="I7" s="11"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="4"/>
+      <c r="K7" s="20">
+        <v>44878</v>
+      </c>
+      <c r="L7" s="34">
+        <v>44878</v>
+      </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>3</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="15">
-        <v>44853</v>
-      </c>
-      <c r="E8" s="9"/>
+        <v>44884</v>
+      </c>
+      <c r="E8" s="33">
+        <v>44884</v>
+      </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="4"/>
       <c r="I8" s="11"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="4"/>
+      <c r="K8" s="20">
+        <v>44884</v>
+      </c>
+      <c r="L8" s="34">
+        <v>44884</v>
+      </c>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>4</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D9" s="15">
         <v>44853</v>
       </c>
-      <c r="E9" s="9"/>
+      <c r="E9" s="33">
+        <v>40850</v>
+      </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G9" s="11"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="11"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="4"/>
+      <c r="K9" s="20">
+        <v>44887</v>
+      </c>
+      <c r="L9" s="34">
+        <v>40850</v>
+      </c>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>5</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="15">
-        <v>44855</v>
-      </c>
-      <c r="E10" s="9"/>
+        <v>44887</v>
+      </c>
+      <c r="E10" s="33">
+        <v>40850</v>
+      </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="4"/>
       <c r="I10" s="11"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="20">
+        <v>44887</v>
+      </c>
+      <c r="L10" s="34">
+        <v>40850</v>
+      </c>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="29">
-        <v>44855</v>
-      </c>
-      <c r="E11" s="9"/>
+        <v>17</v>
+      </c>
+      <c r="D11" s="20">
+        <v>44888</v>
+      </c>
+      <c r="E11" s="33">
+        <v>40850</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="4"/>
       <c r="I11" s="11"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="4"/>
+      <c r="K11" s="20">
+        <v>44888</v>
+      </c>
+      <c r="L11" s="34">
+        <v>40850</v>
+      </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="4"/>
+      <c r="C12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="20">
+        <v>44889</v>
+      </c>
+      <c r="E12" s="33">
+        <v>44866</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="4"/>
       <c r="I12" s="11"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="4"/>
+      <c r="K12" s="20">
+        <v>44889</v>
+      </c>
+      <c r="L12" s="34">
+        <v>44866</v>
+      </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="4"/>
+      <c r="C13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="20">
+        <v>44894</v>
+      </c>
+      <c r="E13" s="33">
+        <v>44894</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="4"/>
       <c r="I13" s="11"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="4"/>
+      <c r="K13" s="20">
+        <v>44894</v>
+      </c>
+      <c r="L13" s="34">
+        <v>44894</v>
+      </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="4"/>
+      <c r="C14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="20">
+        <v>44867</v>
+      </c>
+      <c r="E14" s="33">
+        <v>44867</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G14" s="11"/>
       <c r="H14" s="4"/>
       <c r="I14" s="11"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="4"/>
+      <c r="K14" s="20">
+        <v>44867</v>
+      </c>
+      <c r="L14" s="34">
+        <v>44867</v>
+      </c>
     </row>
     <row r="15" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="6"/>
+      <c r="C15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="35">
+        <v>44868</v>
+      </c>
+      <c r="E15" s="36">
+        <v>44868</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="6"/>
       <c r="I15" s="12"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="35">
+        <v>44868</v>
+      </c>
+      <c r="L15" s="37">
+        <v>44868</v>
+      </c>
+    </row>
+    <row r="16" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="35">
+        <v>44869</v>
+      </c>
+      <c r="E16" s="36">
+        <v>44869</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="35">
+        <v>44869</v>
+      </c>
+      <c r="L16" s="37">
+        <v>44869</v>
+      </c>
     </row>
     <row r="20" spans="11:11" x14ac:dyDescent="0.3">
       <c r="K20" s="19"/>
@@ -1057,8 +1215,13 @@
     <mergeCell ref="I4:J4"/>
   </mergeCells>
   <conditionalFormatting sqref="D6:L15">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(D6))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:L16">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
